--- a/2024/shuffle-architecute/Teste10/content/results/metrics_6_9.xlsx
+++ b/2024/shuffle-architecute/Teste10/content/results/metrics_6_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,922 +492,404 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9961238078890496</v>
+        <v>0.9881133015711803</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8055564316619641</v>
+        <v>0.7203370135611633</v>
       </c>
       <c r="D2" t="n">
-        <v>0.995206317551416</v>
+        <v>0.997320976250278</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9992770769941276</v>
+        <v>0.9967205162806334</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9986603574082351</v>
+        <v>0.9973204395727187</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01626754924654961</v>
+        <v>0.04988593235611916</v>
       </c>
       <c r="H2" t="n">
-        <v>1.300245046615601</v>
+        <v>1.870107650756836</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00620882585644722</v>
+        <v>0.0163868386298418</v>
       </c>
       <c r="J2" t="n">
-        <v>0.004785502795130014</v>
+        <v>0.008473437279462814</v>
       </c>
       <c r="K2" t="n">
-        <v>0.005497162230312824</v>
+        <v>0.01243015192449093</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_22</t>
+          <t>model_6_9_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9961238078890496</v>
+        <v>0.9890766320245934</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8055564316619641</v>
+        <v>0.7179218092063615</v>
       </c>
       <c r="D3" t="n">
-        <v>0.995206317551416</v>
+        <v>0.9959604702961099</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9992770769941276</v>
+        <v>0.9885580730966084</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9986603574082351</v>
+        <v>0.9941503130216787</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01626754924654961</v>
+        <v>0.04584303870797157</v>
       </c>
       <c r="H3" t="n">
-        <v>1.300245046615601</v>
+        <v>1.886258125305176</v>
       </c>
       <c r="I3" t="n">
-        <v>0.00620882585644722</v>
+        <v>0.02470867335796356</v>
       </c>
       <c r="J3" t="n">
-        <v>0.004785502795130014</v>
+        <v>0.02956332638859749</v>
       </c>
       <c r="K3" t="n">
-        <v>0.005497162230312824</v>
+        <v>0.02713598124682903</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_21</t>
+          <t>model_6_9_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9961238078890496</v>
+        <v>0.9892533338373261</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8055564316619641</v>
+        <v>0.7153893239141305</v>
       </c>
       <c r="D4" t="n">
-        <v>0.995206317551416</v>
+        <v>0.9942661339208311</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9992770769941276</v>
+        <v>0.9772429127042458</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9986603574082351</v>
+        <v>0.9898820784789678</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01626754924654961</v>
+        <v>0.04510145634412766</v>
       </c>
       <c r="H4" t="n">
-        <v>1.300245046615601</v>
+        <v>1.90319299697876</v>
       </c>
       <c r="I4" t="n">
-        <v>0.00620882585644722</v>
+        <v>0.0350724533200264</v>
       </c>
       <c r="J4" t="n">
-        <v>0.004785502795130014</v>
+        <v>0.05879911780357361</v>
       </c>
       <c r="K4" t="n">
-        <v>0.005497162230312824</v>
+        <v>0.0469358004629612</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_20</t>
+          <t>model_6_9_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9961238078890496</v>
+        <v>0.9888847565949858</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8055564316619641</v>
+        <v>0.7129127901309114</v>
       </c>
       <c r="D5" t="n">
-        <v>0.995206317551416</v>
+        <v>0.9923930438939157</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9992770769941276</v>
+        <v>0.9640793060530991</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9986603574082351</v>
+        <v>0.9849812255357192</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01626754924654961</v>
+        <v>0.0466483011841774</v>
       </c>
       <c r="H5" t="n">
-        <v>1.300245046615601</v>
+        <v>1.919753551483154</v>
       </c>
       <c r="I5" t="n">
-        <v>0.00620882585644722</v>
+        <v>0.0465296246111393</v>
       </c>
       <c r="J5" t="n">
-        <v>0.004785502795130014</v>
+        <v>0.09281087666749954</v>
       </c>
       <c r="K5" t="n">
-        <v>0.005497162230312824</v>
+        <v>0.06967025250196457</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_19</t>
+          <t>model_6_9_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9961238078890496</v>
+        <v>0.9881559587028081</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8055564316619641</v>
+        <v>0.7105923872246642</v>
       </c>
       <c r="D6" t="n">
-        <v>0.995206317551416</v>
+        <v>0.9904649482810749</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9992770769941276</v>
+        <v>0.9500288876123348</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9986603574082351</v>
+        <v>0.9797971342442319</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01626754924654961</v>
+        <v>0.04970690608024597</v>
       </c>
       <c r="H6" t="n">
-        <v>1.300245046615601</v>
+        <v>1.935270071029663</v>
       </c>
       <c r="I6" t="n">
-        <v>0.00620882585644722</v>
+        <v>0.05832324549555779</v>
       </c>
       <c r="J6" t="n">
-        <v>0.004785502795130014</v>
+        <v>0.1291139423847198</v>
       </c>
       <c r="K6" t="n">
-        <v>0.005497162230312824</v>
+        <v>0.09371861815452576</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_18</t>
+          <t>model_6_9_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9961238078890496</v>
+        <v>0.9872036866503126</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8055564316619641</v>
+        <v>0.7084759023566273</v>
       </c>
       <c r="D7" t="n">
-        <v>0.995206317551416</v>
+        <v>0.9885677117140427</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9992770769941276</v>
+        <v>0.935773188886033</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9986603574082351</v>
+        <v>0.9745762177736884</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01626754924654961</v>
+        <v>0.05370339378714561</v>
       </c>
       <c r="H7" t="n">
-        <v>1.300245046615601</v>
+        <v>1.94942307472229</v>
       </c>
       <c r="I7" t="n">
-        <v>0.00620882585644722</v>
+        <v>0.06992810964584351</v>
       </c>
       <c r="J7" t="n">
-        <v>0.004785502795130014</v>
+        <v>0.1659474223852158</v>
       </c>
       <c r="K7" t="n">
-        <v>0.005497162230312824</v>
+        <v>0.1179378032684326</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_17</t>
+          <t>model_6_9_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9961238078890496</v>
+        <v>0.9861255963475549</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8055564316619641</v>
+        <v>0.7065773316148221</v>
       </c>
       <c r="D8" t="n">
-        <v>0.995206317551416</v>
+        <v>0.986754138025871</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9992770769941276</v>
+        <v>0.9217714763810758</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9986603574082351</v>
+        <v>0.9694811767179898</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01626754924654961</v>
+        <v>0.05822790786623955</v>
       </c>
       <c r="H8" t="n">
-        <v>1.300245046615601</v>
+        <v>1.962118744850159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.00620882585644722</v>
+        <v>0.08102123439311981</v>
       </c>
       <c r="J8" t="n">
-        <v>0.004785502795130014</v>
+        <v>0.2021246552467346</v>
       </c>
       <c r="K8" t="n">
-        <v>0.005497162230312824</v>
+        <v>0.1415730863809586</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_16</t>
+          <t>model_6_9_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9961238078890496</v>
+        <v>0.9849895972021223</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8055564316619641</v>
+        <v>0.7048913214046297</v>
       </c>
       <c r="D9" t="n">
-        <v>0.995206317551416</v>
+        <v>0.9850519889821752</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9992770769941276</v>
+        <v>0.9083179868224626</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9986603574082351</v>
+        <v>0.9646123245731915</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01626754924654961</v>
+        <v>0.06299544125795364</v>
       </c>
       <c r="H9" t="n">
-        <v>1.300245046615601</v>
+        <v>1.973393201828003</v>
       </c>
       <c r="I9" t="n">
-        <v>0.00620882585644722</v>
+        <v>0.09143280237913132</v>
       </c>
       <c r="J9" t="n">
-        <v>0.004785502795130014</v>
+        <v>0.2368853986263275</v>
       </c>
       <c r="K9" t="n">
-        <v>0.005497162230312824</v>
+        <v>0.1641590893268585</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_15</t>
+          <t>model_6_9_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9961238078890496</v>
+        <v>0.9838417398251088</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8055564316619641</v>
+        <v>0.7034022869394339</v>
       </c>
       <c r="D10" t="n">
-        <v>0.995206317551416</v>
+        <v>0.9834727239182486</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9992770769941276</v>
+        <v>0.8955863907184636</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9986603574082351</v>
+        <v>0.9600254896068791</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01626754924654961</v>
+        <v>0.06781275570392609</v>
       </c>
       <c r="H10" t="n">
-        <v>1.300245046615601</v>
+        <v>1.983350276947021</v>
       </c>
       <c r="I10" t="n">
-        <v>0.00620882585644722</v>
+        <v>0.1010927259922028</v>
       </c>
       <c r="J10" t="n">
-        <v>0.004785502795130014</v>
+        <v>0.2697809338569641</v>
       </c>
       <c r="K10" t="n">
-        <v>0.005497162230312824</v>
+        <v>0.1854368597269058</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_14</t>
+          <t>model_6_9_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9961238078890496</v>
+        <v>0.9827128231604391</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8055564316619641</v>
+        <v>0.7020907284176596</v>
       </c>
       <c r="D11" t="n">
-        <v>0.995206317551416</v>
+        <v>0.9820183564145079</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9992770769941276</v>
+        <v>0.8836686758771739</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9986603574082351</v>
+        <v>0.9557476781390545</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01626754924654961</v>
+        <v>0.07255057990550995</v>
       </c>
       <c r="H11" t="n">
-        <v>1.300245046615601</v>
+        <v>1.992120742797852</v>
       </c>
       <c r="I11" t="n">
-        <v>0.00620882585644722</v>
+        <v>0.1099886894226074</v>
       </c>
       <c r="J11" t="n">
-        <v>0.004785502795130014</v>
+        <v>0.3005735874176025</v>
       </c>
       <c r="K11" t="n">
-        <v>0.005497162230312824</v>
+        <v>0.2052810937166214</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_13</t>
+          <t>model_6_9_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9961238078890496</v>
+        <v>0.9816227343455356</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8055564316619641</v>
+        <v>0.700936378428031</v>
       </c>
       <c r="D12" t="n">
-        <v>0.995206317551416</v>
+        <v>0.9806849510458576</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9992770769941276</v>
+        <v>0.8726014960440198</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9986603574082351</v>
+        <v>0.9517864702018739</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01626754924654961</v>
+        <v>0.07712545245885849</v>
       </c>
       <c r="H12" t="n">
-        <v>1.300245046615601</v>
+        <v>1.999839782714844</v>
       </c>
       <c r="I12" t="n">
-        <v>0.00620882585644722</v>
+        <v>0.1181447505950928</v>
       </c>
       <c r="J12" t="n">
-        <v>0.004785502795130014</v>
+        <v>0.3291686475276947</v>
       </c>
       <c r="K12" t="n">
-        <v>0.005497162230312824</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>model_6_9_23</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9961238078890496</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.8055564316619641</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.995206317551416</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.9992770769941276</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.9986603574082351</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.01626754924654961</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1.300245046615601</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.00620882585644722</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.004785502795130014</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.005497162230312824</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>model_6_9_12</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.9961238078890496</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.8055564316619641</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.995206317551416</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.9992770769941276</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.9986603574082351</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.01626754924654961</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1.300245046615601</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.00620882585644722</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.004785502795130014</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.005497162230312824</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>model_6_9_10</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.9961238078890496</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.8055564316619641</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.995206317551416</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.9992770769941276</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.9986603574082351</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.01626754924654961</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1.300245046615601</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.00620882585644722</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.004785502795130014</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.005497162230312824</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>model_6_9_9</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0.9961238078890496</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.8055564316619641</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.995206317551416</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.9992770769941276</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.9986603574082351</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.01626754924654961</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1.300245046615601</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.00620882585644722</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.004785502795130014</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.005497162230312824</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>model_6_9_8</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0.9961238078890496</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.8055564316619641</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.995206317551416</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.9992770769941276</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.9986603574082351</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.01626754924654961</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1.300245046615601</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.00620882585644722</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.004785502795130014</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.005497162230312824</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>model_6_9_7</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0.9961238078890496</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.8055564316619641</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.995206317551416</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.9992770769941276</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.9986603574082351</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.01626754924654961</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1.300245046615601</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0.00620882585644722</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.004785502795130014</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.005497162230312824</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>model_6_9_6</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.9961238078890496</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.8055564316619641</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.995206317551416</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.9992770769941276</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.9986603574082351</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.01626754924654961</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1.300245046615601</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.00620882585644722</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.004785502795130014</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.005497162230312824</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>model_6_9_5</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.9961238078890496</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.8055564316619641</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.995206317551416</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.9992770769941276</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.9986603574082351</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.01626754924654961</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1.300245046615601</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.00620882585644722</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.004785502795130014</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.005497162230312824</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>model_6_9_4</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.9961238078890496</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.8055564316619641</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.995206317551416</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.9992770769941276</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.9986603574082351</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.01626754924654961</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1.300245046615601</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.00620882585644722</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.004785502795130014</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.005497162230312824</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>model_6_9_3</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.9961238078890496</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.8055564316619641</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.995206317551416</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.9992770769941276</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.9986603574082351</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.01626754924654961</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1.300245046615601</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.00620882585644722</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.004785502795130014</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.005497162230312824</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>model_6_9_2</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.9961238078890496</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.8055564316619641</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.995206317551416</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.9992770769941276</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.9986603574082351</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.01626754924654961</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1.300245046615601</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.00620882585644722</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.004785502795130014</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.005497162230312824</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>model_6_9_1</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0.9961238078890496</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.8055564316619641</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.995206317551416</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.9992770769941276</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.9986603574082351</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.01626754924654961</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1.300245046615601</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.00620882585644722</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.004785502795130014</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.005497162230312824</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>model_6_9_11</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.9961238078890496</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.8055564316619641</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.995206317551416</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.9992770769941276</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.9986603574082351</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.01626754924654961</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1.300245046615601</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.00620882585644722</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.004785502795130014</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.005497162230312824</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>model_6_9_24</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0.9961238078890496</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.8055564316619641</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.995206317551416</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.9992770769941276</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.9986603574082351</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.01626754924654961</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1.300245046615601</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.00620882585644722</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.004785502795130014</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.005497162230312824</v>
+        <v>0.2236566543579102</v>
       </c>
     </row>
   </sheetData>
